--- a/data_quarter/zb/人民生活/全国居民人均支出情况.xlsx
+++ b/data_quarter/zb/人民生活/全国居民人均支出情况.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S37"/>
+  <dimension ref="A1:AB37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,11 +524,56 @@
           <t>居民人均食品烟酒支出_累计增长</t>
         </is>
       </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>居民人均交通通信支出</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>居民人均其他用品及服务支出</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>居民人均医疗保健支出</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>居民人均居住支出</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>居民人均教育文化娱乐支出</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>居民人均消费支出</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>居民人均生活用品及服务支出</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>居民人均衣着支出</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>居民人均食品烟酒支出</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2013年第一季度</t>
+          <t>2013年A</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -567,97 +612,178 @@
         <v>1119.8</v>
       </c>
       <c r="S2" t="inlineStr"/>
+      <c r="T2" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="U2" t="n">
+        <v>83.59999999999999</v>
+      </c>
+      <c r="V2" t="n">
+        <v>212</v>
+      </c>
+      <c r="W2" t="n">
+        <v>694.5</v>
+      </c>
+      <c r="X2" t="n">
+        <v>311</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>3370.46</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>204.8</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>349.9</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1119.8</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2013年第三季度</t>
+          <t>2013年B</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1184.9</v>
+        <v>776.3</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>247.7</v>
+        <v>166.9</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>684.2</v>
+        <v>447.7</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>2127.5</v>
+        <v>1387.4</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>1003.9</v>
+        <v>586</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>9476.1</v>
+        <v>6257.16</v>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
-        <v>605.6</v>
+        <v>392.7</v>
       </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="n">
-        <v>747.7</v>
+        <v>559.6</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>2874.6</v>
+        <v>1940.5</v>
       </c>
       <c r="S3" t="inlineStr"/>
+      <c r="T3" t="n">
+        <v>381.4</v>
+      </c>
+      <c r="U3" t="n">
+        <v>83.30000000000001</v>
+      </c>
+      <c r="V3" t="n">
+        <v>235.7</v>
+      </c>
+      <c r="W3" t="n">
+        <v>692.9000000000001</v>
+      </c>
+      <c r="X3" t="n">
+        <v>275</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>2886.7</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>209.7</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>820.7</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2013年第二季度</t>
+          <t>2013年C</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>776.3</v>
+        <v>1184.9</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>166.9</v>
+        <v>247.7</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>447.7</v>
+        <v>684.2</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>1387.4</v>
+        <v>2127.5</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>586</v>
+        <v>1003.9</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>6257.16</v>
+        <v>9476.1</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
-        <v>392.7</v>
+        <v>605.6</v>
       </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
-        <v>559.6</v>
+        <v>747.7</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="n">
-        <v>1940.5</v>
+        <v>2874.6</v>
       </c>
       <c r="S4" t="inlineStr"/>
+      <c r="T4" t="n">
+        <v>408.6000000000001</v>
+      </c>
+      <c r="U4" t="n">
+        <v>80.79999999999998</v>
+      </c>
+      <c r="V4" t="n">
+        <v>236.5000000000001</v>
+      </c>
+      <c r="W4" t="n">
+        <v>740.0999999999999</v>
+      </c>
+      <c r="X4" t="n">
+        <v>417.9</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>3218.940000000001</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>212.9</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>934.0999999999999</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2013年第四季度</t>
+          <t>2013年D</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -696,11 +822,38 @@
         <v>4126.74</v>
       </c>
       <c r="S5" t="inlineStr"/>
+      <c r="T5" t="n">
+        <v>442.1799999999998</v>
+      </c>
+      <c r="U5" t="n">
+        <v>76.98000000000002</v>
+      </c>
+      <c r="V5" t="n">
+        <v>227.9</v>
+      </c>
+      <c r="W5" t="n">
+        <v>871</v>
+      </c>
+      <c r="X5" t="n">
+        <v>393.7800000000001</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>3744.32</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>200.89</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>279.45</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1252.14</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2014年第一季度</t>
+          <t>2014年A</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -756,134 +909,215 @@
       </c>
       <c r="S6" t="n">
         <v>11.3</v>
+      </c>
+      <c r="T6" t="n">
+        <v>459.48</v>
+      </c>
+      <c r="U6" t="n">
+        <v>103.59</v>
+      </c>
+      <c r="V6" t="n">
+        <v>242.61</v>
+      </c>
+      <c r="W6" t="n">
+        <v>762.39</v>
+      </c>
+      <c r="X6" t="n">
+        <v>349.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>3754.99</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>224.55</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>367.04</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1245.82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2014年第三季度</t>
+          <t>2014年B</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1349.22</v>
+        <v>896.1799999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>13.9</v>
+        <v>15.5</v>
       </c>
       <c r="D7" t="n">
-        <v>271.64</v>
+        <v>189.4</v>
       </c>
       <c r="E7" t="n">
-        <v>9.699999999999999</v>
+        <v>13.2</v>
       </c>
       <c r="F7" t="n">
-        <v>781.14</v>
+        <v>502.78</v>
       </c>
       <c r="G7" t="n">
-        <v>14.2</v>
+        <v>12.3</v>
       </c>
       <c r="H7" t="n">
-        <v>2296.91</v>
+        <v>1503.74</v>
       </c>
       <c r="I7" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="J7" t="n">
+        <v>631.7</v>
+      </c>
+      <c r="K7" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="L7" t="n">
+        <v>6915.82</v>
+      </c>
+      <c r="M7" t="n">
         <v>8</v>
       </c>
-      <c r="J7" t="n">
-        <v>1086.78</v>
-      </c>
-      <c r="K7" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="L7" t="n">
-        <v>10402.36</v>
-      </c>
-      <c r="M7" t="n">
-        <v>7.5</v>
-      </c>
       <c r="N7" t="n">
-        <v>658.38</v>
+        <v>431.79</v>
       </c>
       <c r="O7" t="n">
-        <v>8.699999999999999</v>
+        <v>9.9</v>
       </c>
       <c r="P7" t="n">
-        <v>800.9400000000001</v>
+        <v>597.67</v>
       </c>
       <c r="Q7" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="R7" t="n">
-        <v>3157.35</v>
+        <v>2162.55</v>
       </c>
       <c r="S7" t="n">
-        <v>9.800000000000001</v>
+        <v>11.4</v>
+      </c>
+      <c r="T7" t="n">
+        <v>436.6999999999999</v>
+      </c>
+      <c r="U7" t="n">
+        <v>85.81</v>
+      </c>
+      <c r="V7" t="n">
+        <v>260.17</v>
+      </c>
+      <c r="W7" t="n">
+        <v>741.35</v>
+      </c>
+      <c r="X7" t="n">
+        <v>282.2</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>3160.83</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>207.24</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>230.6299999999999</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>916.7300000000002</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2014年第二季度</t>
+          <t>2014年C</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>896.1799999999999</v>
+        <v>1349.22</v>
       </c>
       <c r="C8" t="n">
-        <v>15.5</v>
+        <v>13.9</v>
       </c>
       <c r="D8" t="n">
-        <v>189.4</v>
+        <v>271.64</v>
       </c>
       <c r="E8" t="n">
-        <v>13.2</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>502.78</v>
+        <v>781.14</v>
       </c>
       <c r="G8" t="n">
-        <v>12.3</v>
+        <v>14.2</v>
       </c>
       <c r="H8" t="n">
-        <v>1503.74</v>
+        <v>2296.91</v>
       </c>
       <c r="I8" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="J8" t="n">
-        <v>631.7</v>
+        <v>1086.78</v>
       </c>
       <c r="K8" t="n">
-        <v>7.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="L8" t="n">
-        <v>6915.82</v>
+        <v>10402.36</v>
       </c>
       <c r="M8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="N8" t="n">
-        <v>431.79</v>
+        <v>658.38</v>
       </c>
       <c r="O8" t="n">
-        <v>9.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="P8" t="n">
-        <v>597.67</v>
+        <v>800.9400000000001</v>
       </c>
       <c r="Q8" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="R8" t="n">
-        <v>2162.55</v>
+        <v>3157.35</v>
       </c>
       <c r="S8" t="n">
-        <v>11.4</v>
+        <v>9.800000000000001</v>
+      </c>
+      <c r="T8" t="n">
+        <v>453.0400000000001</v>
+      </c>
+      <c r="U8" t="n">
+        <v>82.23999999999998</v>
+      </c>
+      <c r="V8" t="n">
+        <v>278.36</v>
+      </c>
+      <c r="W8" t="n">
+        <v>793.1699999999998</v>
+      </c>
+      <c r="X8" t="n">
+        <v>455.0799999999999</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>3486.540000000001</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>226.59</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>203.2700000000001</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>994.7999999999997</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2014年第四季度</t>
+          <t>2014年D</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -939,12 +1173,39 @@
       </c>
       <c r="S9" t="n">
         <v>8.9</v>
+      </c>
+      <c r="T9" t="n">
+        <v>520.0599999999999</v>
+      </c>
+      <c r="U9" t="n">
+        <v>86.41000000000003</v>
+      </c>
+      <c r="V9" t="n">
+        <v>263.62</v>
+      </c>
+      <c r="W9" t="n">
+        <v>903.6400000000003</v>
+      </c>
+      <c r="X9" t="n">
+        <v>449.1200000000001</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>4089.039999999999</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>231.29</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>298.3299999999999</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1336.57</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2015年第一季度</t>
+          <t>2015年A</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1000,134 +1261,215 @@
       </c>
       <c r="S10" t="n">
         <v>8.5</v>
+      </c>
+      <c r="T10" t="n">
+        <v>524.11</v>
+      </c>
+      <c r="U10" t="n">
+        <v>109.93</v>
+      </c>
+      <c r="V10" t="n">
+        <v>275.41</v>
+      </c>
+      <c r="W10" t="n">
+        <v>835.49</v>
+      </c>
+      <c r="X10" t="n">
+        <v>330.37</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>4076.28</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>248.77</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>399.94</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1352.25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2015年第三季度</t>
+          <t>2015年B</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1524.45855142724</v>
+        <v>1012.75</v>
       </c>
       <c r="C11" t="n">
         <v>13</v>
       </c>
       <c r="D11" t="n">
-        <v>295.675272589836</v>
+        <v>204.17</v>
       </c>
       <c r="E11" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="F11" t="n">
-        <v>859.623930135104</v>
+        <v>566.76</v>
       </c>
       <c r="G11" t="n">
-        <v>10</v>
+        <v>12.7</v>
       </c>
       <c r="H11" t="n">
-        <v>2460.28705155584</v>
+        <v>1619.75</v>
       </c>
       <c r="I11" t="n">
-        <v>7.1</v>
+        <v>7.7</v>
       </c>
       <c r="J11" t="n">
-        <v>1196.16068030774</v>
+        <v>700.11</v>
       </c>
       <c r="K11" t="n">
-        <v>10.1</v>
+        <v>10.8</v>
       </c>
       <c r="L11" t="n">
-        <v>11285.78</v>
+        <v>7546</v>
       </c>
       <c r="M11" t="n">
-        <v>7.00197238658777</v>
+        <v>7.7</v>
       </c>
       <c r="N11" t="n">
-        <v>700.96558924491</v>
+        <v>467.86</v>
       </c>
       <c r="O11" t="n">
-        <v>6.5</v>
+        <v>8.4</v>
       </c>
       <c r="P11" t="n">
-        <v>847.895233934156</v>
+        <v>638.9</v>
       </c>
       <c r="Q11" t="n">
-        <v>5.9</v>
+        <v>6.9</v>
       </c>
       <c r="R11" t="n">
-        <v>3400.71767458912</v>
+        <v>2335.71</v>
       </c>
       <c r="S11" t="n">
-        <v>7.7</v>
+        <v>8</v>
+      </c>
+      <c r="T11" t="n">
+        <v>488.64</v>
+      </c>
+      <c r="U11" t="n">
+        <v>94.23999999999998</v>
+      </c>
+      <c r="V11" t="n">
+        <v>291.35</v>
+      </c>
+      <c r="W11" t="n">
+        <v>784.26</v>
+      </c>
+      <c r="X11" t="n">
+        <v>369.74</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>3469.72</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>219.09</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>238.96</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>983.46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2015年第二季度</t>
+          <t>2015年C</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1012.75</v>
+        <v>1524.45855142724</v>
       </c>
       <c r="C12" t="n">
         <v>13</v>
       </c>
       <c r="D12" t="n">
-        <v>204.17</v>
+        <v>295.675272589836</v>
       </c>
       <c r="E12" t="n">
-        <v>7.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>566.76</v>
+        <v>859.623930135104</v>
       </c>
       <c r="G12" t="n">
-        <v>12.7</v>
+        <v>10</v>
       </c>
       <c r="H12" t="n">
-        <v>1619.75</v>
+        <v>2460.28705155584</v>
       </c>
       <c r="I12" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1196.16068030774</v>
+      </c>
+      <c r="K12" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>11285.78</v>
+      </c>
+      <c r="M12" t="n">
+        <v>7.00197238658777</v>
+      </c>
+      <c r="N12" t="n">
+        <v>700.96558924491</v>
+      </c>
+      <c r="O12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="P12" t="n">
+        <v>847.895233934156</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3400.71767458912</v>
+      </c>
+      <c r="S12" t="n">
         <v>7.7</v>
       </c>
-      <c r="J12" t="n">
-        <v>700.11</v>
-      </c>
-      <c r="K12" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="L12" t="n">
-        <v>7546</v>
-      </c>
-      <c r="M12" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="N12" t="n">
-        <v>467.86</v>
-      </c>
-      <c r="O12" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="P12" t="n">
-        <v>638.9</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2335.71</v>
-      </c>
-      <c r="S12" t="n">
-        <v>8</v>
+      <c r="T12" t="n">
+        <v>511.7085514272401</v>
+      </c>
+      <c r="U12" t="n">
+        <v>91.50527258983604</v>
+      </c>
+      <c r="V12" t="n">
+        <v>292.8639301351041</v>
+      </c>
+      <c r="W12" t="n">
+        <v>840.5370515558402</v>
+      </c>
+      <c r="X12" t="n">
+        <v>496.05068030774</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>3739.780000000001</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>233.10558924491</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>208.995233934156</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1065.00767458912</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2015年第四季度</t>
+          <t>2015年D</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1183,12 +1525,39 @@
       </c>
       <c r="S13" t="n">
         <v>7.1</v>
+      </c>
+      <c r="T13" t="n">
+        <v>562.4184888206198</v>
+      </c>
+      <c r="U13" t="n">
+        <v>93.49438324295096</v>
+      </c>
+      <c r="V13" t="n">
+        <v>304.9211778887159</v>
+      </c>
+      <c r="W13" t="n">
+        <v>958.94424166099</v>
+      </c>
+      <c r="X13" t="n">
+        <v>526.94568759156</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>4426.6273973386</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>250.395010139907</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>316.1956363131241</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1413.30878789674</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2016年第一季度</t>
+          <t>2016年A</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1244,134 +1613,215 @@
       </c>
       <c r="S14" t="n">
         <v>8.6</v>
+      </c>
+      <c r="T14" t="n">
+        <v>574.032321868426</v>
+      </c>
+      <c r="U14" t="n">
+        <v>114.328804487478</v>
+      </c>
+      <c r="V14" t="n">
+        <v>303.42700606412</v>
+      </c>
+      <c r="W14" t="n">
+        <v>898.345035409073</v>
+      </c>
+      <c r="X14" t="n">
+        <v>423.232690148538</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>4453.5472421748</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>266.898718097614</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>405.398039386767</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>1467.8846267127</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2016年第三季度</t>
+          <t>2016年B</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1669.327836</v>
+        <v>1104.3038712935</v>
       </c>
       <c r="C15" t="n">
+        <v>9</v>
+      </c>
+      <c r="D15" t="n">
+        <v>211.0086238758</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="F15" t="n">
+        <v>641.6740279463</v>
+      </c>
+      <c r="G15" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1772.7669913862</v>
+      </c>
+      <c r="I15" t="n">
         <v>9.5</v>
       </c>
-      <c r="D15" t="n">
-        <v>300.0379869</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="F15" t="n">
-        <v>959.8735809</v>
-      </c>
-      <c r="G15" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2675.62365</v>
-      </c>
-      <c r="I15" t="n">
-        <v>8.800000000000001</v>
-      </c>
       <c r="J15" t="n">
-        <v>1350.843356</v>
+        <v>790.2329605668</v>
       </c>
       <c r="K15" t="n">
         <v>12.9</v>
       </c>
       <c r="L15" t="n">
-        <v>12247.06202</v>
+        <v>8211</v>
       </c>
       <c r="M15" t="n">
-        <v>6.37254902</v>
+        <v>6.6</v>
       </c>
       <c r="N15" t="n">
-        <v>760.4006072</v>
+        <v>502.4062495679</v>
       </c>
       <c r="O15" t="n">
-        <v>8.5</v>
+        <v>7.4</v>
       </c>
       <c r="P15" t="n">
-        <v>867.3551175</v>
+        <v>651.8050124793</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="R15" t="n">
-        <v>3663.599889</v>
+        <v>2536.7222874998</v>
       </c>
       <c r="S15" t="n">
-        <v>7.7</v>
+        <v>8.6</v>
+      </c>
+      <c r="T15" t="n">
+        <v>530.2715494250739</v>
+      </c>
+      <c r="U15" t="n">
+        <v>96.679819388322</v>
+      </c>
+      <c r="V15" t="n">
+        <v>338.24702188218</v>
+      </c>
+      <c r="W15" t="n">
+        <v>874.421955977127</v>
+      </c>
+      <c r="X15" t="n">
+        <v>367.000270418262</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>3757.4527578252</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>235.507531470286</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>246.406973092533</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>1068.8376607871</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2016年第二季度</t>
+          <t>2016年C</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1104.3038712935</v>
+        <v>1669.327836</v>
       </c>
       <c r="C16" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="D16" t="n">
-        <v>211.0086238758</v>
+        <v>300.0379869</v>
       </c>
       <c r="E16" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="F16" t="n">
-        <v>641.6740279463</v>
+        <v>959.8735809</v>
       </c>
       <c r="G16" t="n">
-        <v>13.2</v>
+        <v>11.7</v>
       </c>
       <c r="H16" t="n">
-        <v>1772.7669913862</v>
+        <v>2675.62365</v>
       </c>
       <c r="I16" t="n">
-        <v>9.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J16" t="n">
-        <v>790.2329605668</v>
+        <v>1350.843356</v>
       </c>
       <c r="K16" t="n">
         <v>12.9</v>
       </c>
       <c r="L16" t="n">
-        <v>8211</v>
+        <v>12247.06202</v>
       </c>
       <c r="M16" t="n">
-        <v>6.6</v>
+        <v>6.37254902</v>
       </c>
       <c r="N16" t="n">
-        <v>502.4062495679</v>
+        <v>760.4006072</v>
       </c>
       <c r="O16" t="n">
-        <v>7.4</v>
+        <v>8.5</v>
       </c>
       <c r="P16" t="n">
-        <v>651.8050124793</v>
+        <v>867.3551175</v>
       </c>
       <c r="Q16" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="R16" t="n">
-        <v>2536.7222874998</v>
+        <v>3663.599889</v>
       </c>
       <c r="S16" t="n">
-        <v>8.6</v>
+        <v>7.7</v>
+      </c>
+      <c r="T16" t="n">
+        <v>565.0239647065</v>
+      </c>
+      <c r="U16" t="n">
+        <v>89.02936302420002</v>
+      </c>
+      <c r="V16" t="n">
+        <v>318.1995529536999</v>
+      </c>
+      <c r="W16" t="n">
+        <v>902.8566586137999</v>
+      </c>
+      <c r="X16" t="n">
+        <v>560.6103954332001</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>4036.062019999999</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>257.9943576321</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>215.5501050207</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1126.8776015002</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2016年第四季度</t>
+          <t>2016年D</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1427,12 +1877,39 @@
       </c>
       <c r="S17" t="n">
         <v>7</v>
+      </c>
+      <c r="T17" t="n">
+        <v>668.6721640000001</v>
+      </c>
+      <c r="U17" t="n">
+        <v>105.9620131</v>
+      </c>
+      <c r="V17" t="n">
+        <v>347.1264191</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1070.37635</v>
+      </c>
+      <c r="X17" t="n">
+        <v>564.1566439999999</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>4863.937980000001</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>283.5993928</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>335.6448825</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>1487.400111</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2017年第一季度</t>
+          <t>2017年A</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1488,134 +1965,215 @@
       </c>
       <c r="S18" t="n">
         <v>4.6</v>
+      </c>
+      <c r="T18" t="n">
+        <v>645</v>
+      </c>
+      <c r="U18" t="n">
+        <v>127</v>
+      </c>
+      <c r="V18" t="n">
+        <v>352</v>
+      </c>
+      <c r="W18" t="n">
+        <v>978</v>
+      </c>
+      <c r="X18" t="n">
+        <v>480</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>4796</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>277</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>403</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1535</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2017年第三季度</t>
+          <t>2017年B</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1795.048717</v>
+        <v>1210.647245</v>
       </c>
       <c r="C19" t="n">
-        <v>7.5</v>
+        <v>9.6</v>
       </c>
       <c r="D19" t="n">
-        <v>336.792079</v>
+        <v>236.204788</v>
       </c>
       <c r="E19" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="F19" t="n">
-        <v>1086.349686</v>
+        <v>718.025179</v>
       </c>
       <c r="G19" t="n">
-        <v>13.2</v>
+        <v>11.9</v>
       </c>
       <c r="H19" t="n">
-        <v>2915.104967</v>
+        <v>1919.230526</v>
       </c>
       <c r="I19" t="n">
-        <v>9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J19" t="n">
-        <v>1470.883438</v>
+        <v>869.117046</v>
       </c>
       <c r="K19" t="n">
-        <v>8.9</v>
+        <v>10</v>
       </c>
       <c r="L19" t="n">
-        <v>13161.86821</v>
+        <v>8834.115309999999</v>
       </c>
       <c r="M19" t="n">
-        <v>5.911330049</v>
+        <v>6.114398422</v>
       </c>
       <c r="N19" t="n">
-        <v>820.484727</v>
+        <v>535.190783</v>
       </c>
       <c r="O19" t="n">
-        <v>7.9</v>
+        <v>6.5</v>
       </c>
       <c r="P19" t="n">
-        <v>889.770482</v>
+        <v>667.634833</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="R19" t="n">
-        <v>3847.434114</v>
+        <v>2678.064911</v>
       </c>
       <c r="S19" t="n">
-        <v>5</v>
+        <v>5.6</v>
+      </c>
+      <c r="T19" t="n">
+        <v>565.6472450000001</v>
+      </c>
+      <c r="U19" t="n">
+        <v>109.204788</v>
+      </c>
+      <c r="V19" t="n">
+        <v>366.025179</v>
+      </c>
+      <c r="W19" t="n">
+        <v>941.2305260000001</v>
+      </c>
+      <c r="X19" t="n">
+        <v>389.117046</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>4038.115309999999</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>258.190783</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>264.634833</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1143.064911</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2017年第二季度</t>
+          <t>2017年C</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1210.647245</v>
+        <v>1795.048717</v>
       </c>
       <c r="C20" t="n">
-        <v>9.6</v>
+        <v>7.5</v>
       </c>
       <c r="D20" t="n">
-        <v>236.204788</v>
+        <v>336.792079</v>
       </c>
       <c r="E20" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="F20" t="n">
-        <v>718.025179</v>
+        <v>1086.349686</v>
       </c>
       <c r="G20" t="n">
-        <v>11.9</v>
+        <v>13.2</v>
       </c>
       <c r="H20" t="n">
-        <v>1919.230526</v>
+        <v>2915.104967</v>
       </c>
       <c r="I20" t="n">
-        <v>8.300000000000001</v>
+        <v>9</v>
       </c>
       <c r="J20" t="n">
-        <v>869.117046</v>
+        <v>1470.883438</v>
       </c>
       <c r="K20" t="n">
-        <v>10</v>
+        <v>8.9</v>
       </c>
       <c r="L20" t="n">
-        <v>8834.115309999999</v>
+        <v>13161.86821</v>
       </c>
       <c r="M20" t="n">
-        <v>6.114398422</v>
+        <v>5.911330049</v>
       </c>
       <c r="N20" t="n">
-        <v>535.190783</v>
+        <v>820.484727</v>
       </c>
       <c r="O20" t="n">
-        <v>6.5</v>
+        <v>7.9</v>
       </c>
       <c r="P20" t="n">
-        <v>667.634833</v>
+        <v>889.770482</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="R20" t="n">
-        <v>2678.064911</v>
+        <v>3847.434114</v>
       </c>
       <c r="S20" t="n">
-        <v>5.6</v>
+        <v>5</v>
+      </c>
+      <c r="T20" t="n">
+        <v>584.4014719999998</v>
+      </c>
+      <c r="U20" t="n">
+        <v>100.587291</v>
+      </c>
+      <c r="V20" t="n">
+        <v>368.324507</v>
+      </c>
+      <c r="W20" t="n">
+        <v>995.8744410000002</v>
+      </c>
+      <c r="X20" t="n">
+        <v>601.7663920000001</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>4327.752900000001</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>285.293944</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>222.1356490000001</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1169.369203</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2017年第四季度</t>
+          <t>2017年D</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1671,12 +2229,39 @@
       </c>
       <c r="S21" t="n">
         <v>4.3</v>
+      </c>
+      <c r="T21" t="n">
+        <v>703.8916449999999</v>
+      </c>
+      <c r="U21" t="n">
+        <v>110.2073552</v>
+      </c>
+      <c r="V21" t="n">
+        <v>364.8628639999999</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1191.768897</v>
+      </c>
+      <c r="X21" t="n">
+        <v>615.356939</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>5160.279920000001</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>300.1658809999999</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>347.8776260000001</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1526.14871</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2018年第一季度</t>
+          <t>2018年A</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1732,134 +2317,215 @@
       </c>
       <c r="S22" t="n">
         <v>5.2</v>
+      </c>
+      <c r="T22" t="n">
+        <v>676</v>
+      </c>
+      <c r="U22" t="n">
+        <v>135</v>
+      </c>
+      <c r="V22" t="n">
+        <v>424</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1107</v>
+      </c>
+      <c r="X22" t="n">
+        <v>454</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>5162</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>310</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>441</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1615</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2018年第三季度</t>
+          <t>2018年B</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1931</v>
+        <v>1286</v>
       </c>
       <c r="C23" t="n">
-        <v>7.6</v>
+        <v>6.2</v>
       </c>
       <c r="D23" t="n">
-        <v>361</v>
+        <v>253</v>
       </c>
       <c r="E23" t="n">
         <v>7.1</v>
       </c>
       <c r="F23" t="n">
-        <v>1275</v>
+        <v>860</v>
       </c>
       <c r="G23" t="n">
-        <v>17.4</v>
+        <v>19.7</v>
       </c>
       <c r="H23" t="n">
-        <v>3269</v>
+        <v>2157</v>
       </c>
       <c r="I23" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="J23" t="n">
-        <v>1556</v>
+        <v>932</v>
       </c>
       <c r="K23" t="n">
-        <v>5.8</v>
+        <v>7.2</v>
       </c>
       <c r="L23" t="n">
-        <v>14281</v>
+        <v>9609</v>
       </c>
       <c r="M23" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="N23" t="n">
+        <v>598</v>
+      </c>
+      <c r="O23" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="P23" t="n">
+        <v>710</v>
+      </c>
+      <c r="Q23" t="n">
         <v>6.3</v>
       </c>
-      <c r="N23" t="n">
-        <v>898</v>
-      </c>
-      <c r="O23" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="P23" t="n">
-        <v>927</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>4.2</v>
-      </c>
       <c r="R23" t="n">
-        <v>4063</v>
+        <v>2814</v>
       </c>
       <c r="S23" t="n">
-        <v>5.6</v>
+        <v>5.1</v>
+      </c>
+      <c r="T23" t="n">
+        <v>610</v>
+      </c>
+      <c r="U23" t="n">
+        <v>118</v>
+      </c>
+      <c r="V23" t="n">
+        <v>436</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1050</v>
+      </c>
+      <c r="X23" t="n">
+        <v>478</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>4447</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>288</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>269</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>1199</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2018年第二季度</t>
+          <t>2018年C</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1286</v>
+        <v>1931</v>
       </c>
       <c r="C24" t="n">
-        <v>6.2</v>
+        <v>7.6</v>
       </c>
       <c r="D24" t="n">
-        <v>253</v>
+        <v>361</v>
       </c>
       <c r="E24" t="n">
         <v>7.1</v>
       </c>
       <c r="F24" t="n">
-        <v>860</v>
+        <v>1275</v>
       </c>
       <c r="G24" t="n">
-        <v>19.7</v>
+        <v>17.4</v>
       </c>
       <c r="H24" t="n">
-        <v>2157</v>
+        <v>3269</v>
       </c>
       <c r="I24" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="J24" t="n">
-        <v>932</v>
+        <v>1556</v>
       </c>
       <c r="K24" t="n">
-        <v>7.2</v>
+        <v>5.8</v>
       </c>
       <c r="L24" t="n">
-        <v>9609</v>
+        <v>14281</v>
       </c>
       <c r="M24" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="N24" t="n">
-        <v>598</v>
+        <v>898</v>
       </c>
       <c r="O24" t="n">
-        <v>11.8</v>
+        <v>9.4</v>
       </c>
       <c r="P24" t="n">
-        <v>710</v>
+        <v>927</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.3</v>
+        <v>4.2</v>
       </c>
       <c r="R24" t="n">
-        <v>2814</v>
+        <v>4063</v>
       </c>
       <c r="S24" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
+      </c>
+      <c r="T24" t="n">
+        <v>645</v>
+      </c>
+      <c r="U24" t="n">
+        <v>108</v>
+      </c>
+      <c r="V24" t="n">
+        <v>415</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1112</v>
+      </c>
+      <c r="X24" t="n">
+        <v>624</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>4672</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>300</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>217</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1249</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2018年第四季度</t>
+          <t>2018年D</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1915,12 +2581,39 @@
       </c>
       <c r="S25" t="n">
         <v>4.8</v>
+      </c>
+      <c r="T25" t="n">
+        <v>744</v>
+      </c>
+      <c r="U25" t="n">
+        <v>116</v>
+      </c>
+      <c r="V25" t="n">
+        <v>410</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1378</v>
+      </c>
+      <c r="X25" t="n">
+        <v>670</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>5572</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>325</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>362</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1568</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2019年第一季度</t>
+          <t>2019年A</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1976,134 +2669,215 @@
       </c>
       <c r="S26" t="n">
         <v>3.6</v>
+      </c>
+      <c r="T26" t="n">
+        <v>728.8762862677</v>
+      </c>
+      <c r="U26" t="n">
+        <v>144.000753029</v>
+      </c>
+      <c r="V26" t="n">
+        <v>463.9146972345</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1211.6765490656</v>
+      </c>
+      <c r="X26" t="n">
+        <v>547.8452735663</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>5537.5008850455</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>319.4938162054</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>448.8784741869</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>1672.81503549</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2019年第三季度</t>
+          <t>2019年B</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2078.1893078662</v>
+        <v>1386.555657144</v>
       </c>
       <c r="C27" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="D27" t="n">
-        <v>400.8880571301</v>
+        <v>277.7116956063</v>
       </c>
       <c r="E27" t="n">
-        <v>11.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>1413.9959542499</v>
+        <v>941.1501290952</v>
       </c>
       <c r="G27" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2389.3312990305</v>
+      </c>
+      <c r="I27" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1032.9988881623</v>
+      </c>
+      <c r="K27" t="n">
         <v>10.9</v>
       </c>
-      <c r="H27" t="n">
-        <v>3606.5433308505</v>
-      </c>
-      <c r="I27" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1766.0342575086</v>
-      </c>
-      <c r="K27" t="n">
-        <v>13.5</v>
-      </c>
       <c r="L27" t="n">
-        <v>15464.2689684162</v>
+        <v>10330.4472091597</v>
       </c>
       <c r="M27" t="n">
-        <v>5.6585365854</v>
+        <v>5.1859099804</v>
       </c>
       <c r="N27" t="n">
-        <v>926.4036670832</v>
+        <v>621.2193000072</v>
       </c>
       <c r="O27" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P27" t="n">
-        <v>962.2271009625</v>
+        <v>731.2936174604</v>
       </c>
       <c r="Q27" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="R27" t="n">
-        <v>4309.9872927653</v>
+        <v>2950.1866226538</v>
       </c>
       <c r="S27" t="n">
-        <v>6.1</v>
+        <v>4.8</v>
+      </c>
+      <c r="T27" t="n">
+        <v>657.6793708762999</v>
+      </c>
+      <c r="U27" t="n">
+        <v>133.7109425773</v>
+      </c>
+      <c r="V27" t="n">
+        <v>477.2354318607</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1177.6547499649</v>
+      </c>
+      <c r="X27" t="n">
+        <v>485.1536145960001</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>4792.9463241142</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>301.7254838018</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>282.4151432735</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>1277.3715871638</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2019年第二季度</t>
+          <t>2019年C</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1386.555657144</v>
+        <v>2078.1893078662</v>
       </c>
       <c r="C28" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="D28" t="n">
-        <v>277.7116956063</v>
+        <v>400.8880571301</v>
       </c>
       <c r="E28" t="n">
-        <v>9.800000000000001</v>
+        <v>11.1</v>
       </c>
       <c r="F28" t="n">
-        <v>941.1501290952</v>
+        <v>1413.9959542499</v>
       </c>
       <c r="G28" t="n">
-        <v>9.5</v>
+        <v>10.9</v>
       </c>
       <c r="H28" t="n">
-        <v>2389.3312990305</v>
+        <v>3606.5433308505</v>
       </c>
       <c r="I28" t="n">
-        <v>10.8</v>
+        <v>10.3</v>
       </c>
       <c r="J28" t="n">
-        <v>1032.9988881623</v>
+        <v>1766.0342575086</v>
       </c>
       <c r="K28" t="n">
-        <v>10.9</v>
+        <v>13.5</v>
       </c>
       <c r="L28" t="n">
-        <v>10330.4472091597</v>
+        <v>15464.2689684162</v>
       </c>
       <c r="M28" t="n">
-        <v>5.1859099804</v>
+        <v>5.6585365854</v>
       </c>
       <c r="N28" t="n">
-        <v>621.2193000072</v>
+        <v>926.4036670832</v>
       </c>
       <c r="O28" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="P28" t="n">
+        <v>962.2271009625</v>
+      </c>
+      <c r="Q28" t="n">
         <v>3.8</v>
       </c>
-      <c r="P28" t="n">
-        <v>731.2936174604</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>3</v>
-      </c>
       <c r="R28" t="n">
-        <v>2950.1866226538</v>
+        <v>4309.9872927653</v>
       </c>
       <c r="S28" t="n">
-        <v>4.8</v>
+        <v>6.1</v>
+      </c>
+      <c r="T28" t="n">
+        <v>691.6336507222002</v>
+      </c>
+      <c r="U28" t="n">
+        <v>123.1763615238</v>
+      </c>
+      <c r="V28" t="n">
+        <v>472.8458251547</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1217.21203182</v>
+      </c>
+      <c r="X28" t="n">
+        <v>733.0353693462998</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>5133.8217592565</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>305.1843670760001</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>230.9334835021</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>1359.8006701115</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2019年第四季度</t>
+          <t>2019年D</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2159,12 +2933,39 @@
       </c>
       <c r="S29" t="n">
         <v>8</v>
+      </c>
+      <c r="T29" t="n">
+        <v>783.8106921337999</v>
+      </c>
+      <c r="U29" t="n">
+        <v>123.1119428699</v>
+      </c>
+      <c r="V29" t="n">
+        <v>488.0040457501</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1448.4566691495</v>
+      </c>
+      <c r="X29" t="n">
+        <v>746.9657424914001</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>6094.7310315838</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>354.5963329168</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>375.7728990375</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>1774.0127072347</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2020年第一季度</t>
+          <t>2020年A</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2220,134 +3021,215 @@
       </c>
       <c r="S30" t="n">
         <v>2.1</v>
+      </c>
+      <c r="T30" t="n">
+        <v>605</v>
+      </c>
+      <c r="U30" t="n">
+        <v>112</v>
+      </c>
+      <c r="V30" t="n">
+        <v>417</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1238</v>
+      </c>
+      <c r="X30" t="n">
+        <v>350</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>5082</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>283</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>369</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>1708</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2020年第三季度</t>
+          <t>2020年B</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1955</v>
+        <v>1238</v>
       </c>
       <c r="C31" t="n">
-        <v>-5.9</v>
+        <v>-10.7</v>
       </c>
       <c r="D31" t="n">
-        <v>328</v>
+        <v>215</v>
       </c>
       <c r="E31" t="n">
-        <v>-18.1</v>
+        <v>-22.6</v>
       </c>
       <c r="F31" t="n">
-        <v>1338</v>
+        <v>848</v>
       </c>
       <c r="G31" t="n">
-        <v>-5.4</v>
+        <v>-9.9</v>
       </c>
       <c r="H31" t="n">
-        <v>3736</v>
+        <v>2464</v>
       </c>
       <c r="I31" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="J31" t="n">
-        <v>1276</v>
+        <v>664</v>
       </c>
       <c r="K31" t="n">
-        <v>-27.7</v>
+        <v>-35.7</v>
       </c>
       <c r="L31" t="n">
-        <v>14923</v>
+        <v>9718</v>
       </c>
       <c r="M31" t="n">
-        <v>-6.6</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="N31" t="n">
-        <v>896</v>
+        <v>582</v>
       </c>
       <c r="O31" t="n">
-        <v>-3.3</v>
+        <v>-6.4</v>
       </c>
       <c r="P31" t="n">
-        <v>847</v>
+        <v>611</v>
       </c>
       <c r="Q31" t="n">
-        <v>-11.9</v>
+        <v>-16.4</v>
       </c>
       <c r="R31" t="n">
-        <v>4546</v>
+        <v>3097</v>
       </c>
       <c r="S31" t="n">
-        <v>5.5</v>
+        <v>5</v>
+      </c>
+      <c r="T31" t="n">
+        <v>633</v>
+      </c>
+      <c r="U31" t="n">
+        <v>103</v>
+      </c>
+      <c r="V31" t="n">
+        <v>431</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1226</v>
+      </c>
+      <c r="X31" t="n">
+        <v>314</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>4636</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>299</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>242</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>1389</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2020年第二季度</t>
+          <t>2020年C</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1238</v>
+        <v>1955</v>
       </c>
       <c r="C32" t="n">
-        <v>-10.7</v>
+        <v>-5.9</v>
       </c>
       <c r="D32" t="n">
-        <v>215</v>
+        <v>328</v>
       </c>
       <c r="E32" t="n">
-        <v>-22.6</v>
+        <v>-18.1</v>
       </c>
       <c r="F32" t="n">
-        <v>848</v>
+        <v>1338</v>
       </c>
       <c r="G32" t="n">
-        <v>-9.9</v>
+        <v>-5.4</v>
       </c>
       <c r="H32" t="n">
-        <v>2464</v>
+        <v>3736</v>
       </c>
       <c r="I32" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="J32" t="n">
-        <v>664</v>
+        <v>1276</v>
       </c>
       <c r="K32" t="n">
-        <v>-35.7</v>
+        <v>-27.7</v>
       </c>
       <c r="L32" t="n">
-        <v>9718</v>
+        <v>14923</v>
       </c>
       <c r="M32" t="n">
-        <v>-9.300000000000001</v>
+        <v>-6.6</v>
       </c>
       <c r="N32" t="n">
-        <v>582</v>
+        <v>896</v>
       </c>
       <c r="O32" t="n">
-        <v>-6.4</v>
+        <v>-3.3</v>
       </c>
       <c r="P32" t="n">
-        <v>611</v>
+        <v>847</v>
       </c>
       <c r="Q32" t="n">
-        <v>-16.4</v>
+        <v>-11.9</v>
       </c>
       <c r="R32" t="n">
-        <v>3097</v>
+        <v>4546</v>
       </c>
       <c r="S32" t="n">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="T32" t="n">
+        <v>717</v>
+      </c>
+      <c r="U32" t="n">
+        <v>113</v>
+      </c>
+      <c r="V32" t="n">
+        <v>490</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1272</v>
+      </c>
+      <c r="X32" t="n">
+        <v>612</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>5205</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>314</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>236</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>1449</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2020年第四季度</t>
+          <t>2020年D</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2403,12 +3285,39 @@
       </c>
       <c r="S33" t="n">
         <v>5.1</v>
+      </c>
+      <c r="T33" t="n">
+        <v>807</v>
+      </c>
+      <c r="U33" t="n">
+        <v>134</v>
+      </c>
+      <c r="V33" t="n">
+        <v>505</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1479</v>
+      </c>
+      <c r="X33" t="n">
+        <v>756</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>6287</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>364</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>391</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>1851</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2021年第一季度</t>
+          <t>2021年A</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2464,134 +3373,215 @@
       </c>
       <c r="S34" t="n">
         <v>16.3</v>
+      </c>
+      <c r="T34" t="n">
+        <v>702</v>
+      </c>
+      <c r="U34" t="n">
+        <v>139</v>
+      </c>
+      <c r="V34" t="n">
+        <v>484</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1345</v>
+      </c>
+      <c r="X34" t="n">
+        <v>545</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>5978</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>339</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>437</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>1986</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2021年第三季度</t>
+          <t>2021年B</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2237</v>
+        <v>1455</v>
       </c>
       <c r="C35" t="n">
-        <v>14.4</v>
+        <v>17.5</v>
       </c>
       <c r="D35" t="n">
-        <v>415</v>
+        <v>286</v>
       </c>
       <c r="E35" t="n">
-        <v>26.3</v>
+        <v>33</v>
       </c>
       <c r="F35" t="n">
-        <v>1557</v>
+        <v>1015</v>
       </c>
       <c r="G35" t="n">
-        <v>16.4</v>
+        <v>19.7</v>
       </c>
       <c r="H35" t="n">
-        <v>4031</v>
+        <v>2649</v>
       </c>
       <c r="I35" t="n">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="J35" t="n">
-        <v>1867</v>
+        <v>1119</v>
       </c>
       <c r="K35" t="n">
-        <v>46.3</v>
+        <v>68.5</v>
       </c>
       <c r="L35" t="n">
-        <v>17275</v>
+        <v>11471</v>
       </c>
       <c r="M35" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="N35" t="n">
+        <v>669</v>
+      </c>
+      <c r="O35" t="n">
         <v>15.1</v>
       </c>
-      <c r="N35" t="n">
-        <v>1021</v>
-      </c>
-      <c r="O35" t="n">
-        <v>14</v>
-      </c>
       <c r="P35" t="n">
-        <v>1002</v>
+        <v>742</v>
       </c>
       <c r="Q35" t="n">
-        <v>18.2</v>
+        <v>21.4</v>
       </c>
       <c r="R35" t="n">
-        <v>5144</v>
+        <v>3536</v>
       </c>
       <c r="S35" t="n">
-        <v>13.2</v>
+        <v>14.2</v>
+      </c>
+      <c r="T35" t="n">
+        <v>753</v>
+      </c>
+      <c r="U35" t="n">
+        <v>147</v>
+      </c>
+      <c r="V35" t="n">
+        <v>531</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1304</v>
+      </c>
+      <c r="X35" t="n">
+        <v>574</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>5493</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>330</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>305</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>1550</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2021年第二季度</t>
+          <t>2021年C</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1455</v>
+        <v>2237</v>
       </c>
       <c r="C36" t="n">
-        <v>17.5</v>
+        <v>14.4</v>
       </c>
       <c r="D36" t="n">
-        <v>286</v>
+        <v>415</v>
       </c>
       <c r="E36" t="n">
-        <v>33</v>
+        <v>26.3</v>
       </c>
       <c r="F36" t="n">
-        <v>1015</v>
+        <v>1557</v>
       </c>
       <c r="G36" t="n">
-        <v>19.7</v>
+        <v>16.4</v>
       </c>
       <c r="H36" t="n">
-        <v>2649</v>
+        <v>4031</v>
       </c>
       <c r="I36" t="n">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
       <c r="J36" t="n">
-        <v>1119</v>
+        <v>1867</v>
       </c>
       <c r="K36" t="n">
-        <v>68.5</v>
+        <v>46.3</v>
       </c>
       <c r="L36" t="n">
-        <v>11471</v>
+        <v>17275</v>
       </c>
       <c r="M36" t="n">
-        <v>17.4</v>
+        <v>15.1</v>
       </c>
       <c r="N36" t="n">
-        <v>669</v>
+        <v>1021</v>
       </c>
       <c r="O36" t="n">
-        <v>15.1</v>
+        <v>14</v>
       </c>
       <c r="P36" t="n">
-        <v>742</v>
+        <v>1002</v>
       </c>
       <c r="Q36" t="n">
-        <v>21.4</v>
+        <v>18.2</v>
       </c>
       <c r="R36" t="n">
-        <v>3536</v>
+        <v>5144</v>
       </c>
       <c r="S36" t="n">
-        <v>14.2</v>
+        <v>13.2</v>
+      </c>
+      <c r="T36" t="n">
+        <v>782</v>
+      </c>
+      <c r="U36" t="n">
+        <v>129</v>
+      </c>
+      <c r="V36" t="n">
+        <v>542</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1382</v>
+      </c>
+      <c r="X36" t="n">
+        <v>748</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>5804</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>352</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>260</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>1608</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2021年第四季度</t>
+          <t>2021年D</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -2632,6 +3622,33 @@
         <v>7178.08</v>
       </c>
       <c r="S37" t="inlineStr"/>
+      <c r="T37" t="n">
+        <v>918.5799999999999</v>
+      </c>
+      <c r="U37" t="n">
+        <v>154.4400000000001</v>
+      </c>
+      <c r="V37" t="n">
+        <v>558.1500000000001</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1610.05</v>
+      </c>
+      <c r="X37" t="n">
+        <v>731.9400000000001</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>6825.09</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>402.1800000000001</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>416.6700000000001</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>2034.08</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_quarter/zb/人民生活/全国居民人均支出情况.xlsx
+++ b/data_quarter/zb/人民生活/全国居民人均支出情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB37"/>
+  <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,51 +524,6 @@
           <t>居民人均食品烟酒支出_累计增长</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>居民人均交通通信支出</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>居民人均其他用品及服务支出</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>居民人均医疗保健支出</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>居民人均居住支出</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>居民人均教育文化娱乐支出</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>居民人均消费支出</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>居民人均生活用品及服务支出</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>居民人均衣着支出</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>居民人均食品烟酒支出</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -612,173 +567,92 @@
         <v>1119.8</v>
       </c>
       <c r="S2" t="inlineStr"/>
-      <c r="T2" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="U2" t="n">
-        <v>83.59999999999999</v>
-      </c>
-      <c r="V2" t="n">
-        <v>212</v>
-      </c>
-      <c r="W2" t="n">
-        <v>694.5</v>
-      </c>
-      <c r="X2" t="n">
-        <v>311</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>3370.46</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>204.8</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>349.9</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1119.8</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2013年B</t>
+          <t>2013年C</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>776.3</v>
+        <v>1184.9</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>166.9</v>
+        <v>247.7</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>447.7</v>
+        <v>684.2</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>1387.4</v>
+        <v>2127.5</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>586</v>
+        <v>1003.9</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>6257.16</v>
+        <v>9476.1</v>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
-        <v>392.7</v>
+        <v>605.6</v>
       </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="n">
-        <v>559.6</v>
+        <v>747.7</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>1940.5</v>
+        <v>2874.6</v>
       </c>
       <c r="S3" t="inlineStr"/>
-      <c r="T3" t="n">
-        <v>381.4</v>
-      </c>
-      <c r="U3" t="n">
-        <v>83.30000000000001</v>
-      </c>
-      <c r="V3" t="n">
-        <v>235.7</v>
-      </c>
-      <c r="W3" t="n">
-        <v>692.9000000000001</v>
-      </c>
-      <c r="X3" t="n">
-        <v>275</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>2886.7</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>187.9</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>209.7</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>820.7</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2013年C</t>
+          <t>2013年B</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1184.9</v>
+        <v>776.3</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>247.7</v>
+        <v>166.9</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>684.2</v>
+        <v>447.7</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>2127.5</v>
+        <v>1387.4</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>1003.9</v>
+        <v>586</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>9476.1</v>
+        <v>6257.16</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
-        <v>605.6</v>
+        <v>392.7</v>
       </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
-        <v>747.7</v>
+        <v>559.6</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="n">
-        <v>2874.6</v>
+        <v>1940.5</v>
       </c>
       <c r="S4" t="inlineStr"/>
-      <c r="T4" t="n">
-        <v>408.6000000000001</v>
-      </c>
-      <c r="U4" t="n">
-        <v>80.79999999999998</v>
-      </c>
-      <c r="V4" t="n">
-        <v>236.5000000000001</v>
-      </c>
-      <c r="W4" t="n">
-        <v>740.0999999999999</v>
-      </c>
-      <c r="X4" t="n">
-        <v>417.9</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>3218.940000000001</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>212.9</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>188.1</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>934.0999999999999</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -822,33 +696,6 @@
         <v>4126.74</v>
       </c>
       <c r="S5" t="inlineStr"/>
-      <c r="T5" t="n">
-        <v>442.1799999999998</v>
-      </c>
-      <c r="U5" t="n">
-        <v>76.98000000000002</v>
-      </c>
-      <c r="V5" t="n">
-        <v>227.9</v>
-      </c>
-      <c r="W5" t="n">
-        <v>871</v>
-      </c>
-      <c r="X5" t="n">
-        <v>393.7800000000001</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>3744.32</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>200.89</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>279.45</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>1252.14</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -910,208 +757,127 @@
       <c r="S6" t="n">
         <v>11.3</v>
       </c>
-      <c r="T6" t="n">
-        <v>459.48</v>
-      </c>
-      <c r="U6" t="n">
-        <v>103.59</v>
-      </c>
-      <c r="V6" t="n">
-        <v>242.61</v>
-      </c>
-      <c r="W6" t="n">
-        <v>762.39</v>
-      </c>
-      <c r="X6" t="n">
-        <v>349.5</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>3754.99</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>224.55</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>367.04</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>1245.82</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2014年B</t>
+          <t>2014年C</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>896.1799999999999</v>
+        <v>1349.22</v>
       </c>
       <c r="C7" t="n">
-        <v>15.5</v>
+        <v>13.9</v>
       </c>
       <c r="D7" t="n">
-        <v>189.4</v>
+        <v>271.64</v>
       </c>
       <c r="E7" t="n">
-        <v>13.2</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>502.78</v>
+        <v>781.14</v>
       </c>
       <c r="G7" t="n">
-        <v>12.3</v>
+        <v>14.2</v>
       </c>
       <c r="H7" t="n">
-        <v>1503.74</v>
+        <v>2296.91</v>
       </c>
       <c r="I7" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="J7" t="n">
-        <v>631.7</v>
+        <v>1086.78</v>
       </c>
       <c r="K7" t="n">
-        <v>7.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="L7" t="n">
-        <v>6915.82</v>
+        <v>10402.36</v>
       </c>
       <c r="M7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="N7" t="n">
-        <v>431.79</v>
+        <v>658.38</v>
       </c>
       <c r="O7" t="n">
-        <v>9.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="P7" t="n">
-        <v>597.67</v>
+        <v>800.9400000000001</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="R7" t="n">
-        <v>2162.55</v>
+        <v>3157.35</v>
       </c>
       <c r="S7" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="T7" t="n">
-        <v>436.6999999999999</v>
-      </c>
-      <c r="U7" t="n">
-        <v>85.81</v>
-      </c>
-      <c r="V7" t="n">
-        <v>260.17</v>
-      </c>
-      <c r="W7" t="n">
-        <v>741.35</v>
-      </c>
-      <c r="X7" t="n">
-        <v>282.2</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>3160.83</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>207.24</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>230.6299999999999</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>916.7300000000002</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2014年C</t>
+          <t>2014年B</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1349.22</v>
+        <v>896.1799999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>13.9</v>
+        <v>15.5</v>
       </c>
       <c r="D8" t="n">
-        <v>271.64</v>
+        <v>189.4</v>
       </c>
       <c r="E8" t="n">
-        <v>9.699999999999999</v>
+        <v>13.2</v>
       </c>
       <c r="F8" t="n">
-        <v>781.14</v>
+        <v>502.78</v>
       </c>
       <c r="G8" t="n">
-        <v>14.2</v>
+        <v>12.3</v>
       </c>
       <c r="H8" t="n">
-        <v>2296.91</v>
+        <v>1503.74</v>
       </c>
       <c r="I8" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="J8" t="n">
+        <v>631.7</v>
+      </c>
+      <c r="K8" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="L8" t="n">
+        <v>6915.82</v>
+      </c>
+      <c r="M8" t="n">
         <v>8</v>
       </c>
-      <c r="J8" t="n">
-        <v>1086.78</v>
-      </c>
-      <c r="K8" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="L8" t="n">
-        <v>10402.36</v>
-      </c>
-      <c r="M8" t="n">
-        <v>7.5</v>
-      </c>
       <c r="N8" t="n">
-        <v>658.38</v>
+        <v>431.79</v>
       </c>
       <c r="O8" t="n">
-        <v>8.699999999999999</v>
+        <v>9.9</v>
       </c>
       <c r="P8" t="n">
-        <v>800.9400000000001</v>
+        <v>597.67</v>
       </c>
       <c r="Q8" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="R8" t="n">
-        <v>3157.35</v>
+        <v>2162.55</v>
       </c>
       <c r="S8" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="T8" t="n">
-        <v>453.0400000000001</v>
-      </c>
-      <c r="U8" t="n">
-        <v>82.23999999999998</v>
-      </c>
-      <c r="V8" t="n">
-        <v>278.36</v>
-      </c>
-      <c r="W8" t="n">
-        <v>793.1699999999998</v>
-      </c>
-      <c r="X8" t="n">
-        <v>455.0799999999999</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>3486.540000000001</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>226.59</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>203.2700000000001</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>994.7999999999997</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="9">
@@ -1174,33 +940,6 @@
       <c r="S9" t="n">
         <v>8.9</v>
       </c>
-      <c r="T9" t="n">
-        <v>520.0599999999999</v>
-      </c>
-      <c r="U9" t="n">
-        <v>86.41000000000003</v>
-      </c>
-      <c r="V9" t="n">
-        <v>263.62</v>
-      </c>
-      <c r="W9" t="n">
-        <v>903.6400000000003</v>
-      </c>
-      <c r="X9" t="n">
-        <v>449.1200000000001</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>4089.039999999999</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>231.29</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>298.3299999999999</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>1336.57</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1262,208 +1001,127 @@
       <c r="S10" t="n">
         <v>8.5</v>
       </c>
-      <c r="T10" t="n">
-        <v>524.11</v>
-      </c>
-      <c r="U10" t="n">
-        <v>109.93</v>
-      </c>
-      <c r="V10" t="n">
-        <v>275.41</v>
-      </c>
-      <c r="W10" t="n">
-        <v>835.49</v>
-      </c>
-      <c r="X10" t="n">
-        <v>330.37</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>4076.28</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>248.77</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>399.94</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>1352.25</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2015年B</t>
+          <t>2015年C</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1012.75</v>
+        <v>1524.45855142724</v>
       </c>
       <c r="C11" t="n">
         <v>13</v>
       </c>
       <c r="D11" t="n">
-        <v>204.17</v>
+        <v>295.675272589836</v>
       </c>
       <c r="E11" t="n">
-        <v>7.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>566.76</v>
+        <v>859.623930135104</v>
       </c>
       <c r="G11" t="n">
-        <v>12.7</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
-        <v>1619.75</v>
+        <v>2460.28705155584</v>
       </c>
       <c r="I11" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1196.16068030774</v>
+      </c>
+      <c r="K11" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>11285.78</v>
+      </c>
+      <c r="M11" t="n">
+        <v>7.00197238658777</v>
+      </c>
+      <c r="N11" t="n">
+        <v>700.96558924491</v>
+      </c>
+      <c r="O11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="P11" t="n">
+        <v>847.895233934156</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3400.71767458912</v>
+      </c>
+      <c r="S11" t="n">
         <v>7.7</v>
-      </c>
-      <c r="J11" t="n">
-        <v>700.11</v>
-      </c>
-      <c r="K11" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="L11" t="n">
-        <v>7546</v>
-      </c>
-      <c r="M11" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="N11" t="n">
-        <v>467.86</v>
-      </c>
-      <c r="O11" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="P11" t="n">
-        <v>638.9</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2335.71</v>
-      </c>
-      <c r="S11" t="n">
-        <v>8</v>
-      </c>
-      <c r="T11" t="n">
-        <v>488.64</v>
-      </c>
-      <c r="U11" t="n">
-        <v>94.23999999999998</v>
-      </c>
-      <c r="V11" t="n">
-        <v>291.35</v>
-      </c>
-      <c r="W11" t="n">
-        <v>784.26</v>
-      </c>
-      <c r="X11" t="n">
-        <v>369.74</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>3469.72</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>219.09</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>238.96</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>983.46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2015年C</t>
+          <t>2015年B</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1524.45855142724</v>
+        <v>1012.75</v>
       </c>
       <c r="C12" t="n">
         <v>13</v>
       </c>
       <c r="D12" t="n">
-        <v>295.675272589836</v>
+        <v>204.17</v>
       </c>
       <c r="E12" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="F12" t="n">
-        <v>859.623930135104</v>
+        <v>566.76</v>
       </c>
       <c r="G12" t="n">
-        <v>10</v>
+        <v>12.7</v>
       </c>
       <c r="H12" t="n">
-        <v>2460.28705155584</v>
+        <v>1619.75</v>
       </c>
       <c r="I12" t="n">
-        <v>7.1</v>
+        <v>7.7</v>
       </c>
       <c r="J12" t="n">
-        <v>1196.16068030774</v>
+        <v>700.11</v>
       </c>
       <c r="K12" t="n">
-        <v>10.1</v>
+        <v>10.8</v>
       </c>
       <c r="L12" t="n">
-        <v>11285.78</v>
+        <v>7546</v>
       </c>
       <c r="M12" t="n">
-        <v>7.00197238658777</v>
+        <v>7.7</v>
       </c>
       <c r="N12" t="n">
-        <v>700.96558924491</v>
+        <v>467.86</v>
       </c>
       <c r="O12" t="n">
-        <v>6.5</v>
+        <v>8.4</v>
       </c>
       <c r="P12" t="n">
-        <v>847.895233934156</v>
+        <v>638.9</v>
       </c>
       <c r="Q12" t="n">
-        <v>5.9</v>
+        <v>6.9</v>
       </c>
       <c r="R12" t="n">
-        <v>3400.71767458912</v>
+        <v>2335.71</v>
       </c>
       <c r="S12" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="T12" t="n">
-        <v>511.7085514272401</v>
-      </c>
-      <c r="U12" t="n">
-        <v>91.50527258983604</v>
-      </c>
-      <c r="V12" t="n">
-        <v>292.8639301351041</v>
-      </c>
-      <c r="W12" t="n">
-        <v>840.5370515558402</v>
-      </c>
-      <c r="X12" t="n">
-        <v>496.05068030774</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>3739.780000000001</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>233.10558924491</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>208.995233934156</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>1065.00767458912</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1526,33 +1184,6 @@
       <c r="S13" t="n">
         <v>7.1</v>
       </c>
-      <c r="T13" t="n">
-        <v>562.4184888206198</v>
-      </c>
-      <c r="U13" t="n">
-        <v>93.49438324295096</v>
-      </c>
-      <c r="V13" t="n">
-        <v>304.9211778887159</v>
-      </c>
-      <c r="W13" t="n">
-        <v>958.94424166099</v>
-      </c>
-      <c r="X13" t="n">
-        <v>526.94568759156</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>4426.6273973386</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>250.395010139907</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>316.1956363131241</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>1413.30878789674</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1614,208 +1245,127 @@
       <c r="S14" t="n">
         <v>8.6</v>
       </c>
-      <c r="T14" t="n">
-        <v>574.032321868426</v>
-      </c>
-      <c r="U14" t="n">
-        <v>114.328804487478</v>
-      </c>
-      <c r="V14" t="n">
-        <v>303.42700606412</v>
-      </c>
-      <c r="W14" t="n">
-        <v>898.345035409073</v>
-      </c>
-      <c r="X14" t="n">
-        <v>423.232690148538</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>4453.5472421748</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>266.898718097614</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>405.398039386767</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>1467.8846267127</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2016年B</t>
+          <t>2016年C</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1104.3038712935</v>
+        <v>1669.327836</v>
       </c>
       <c r="C15" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="D15" t="n">
-        <v>211.0086238758</v>
+        <v>300.0379869</v>
       </c>
       <c r="E15" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="F15" t="n">
-        <v>641.6740279463</v>
+        <v>959.8735809</v>
       </c>
       <c r="G15" t="n">
-        <v>13.2</v>
+        <v>11.7</v>
       </c>
       <c r="H15" t="n">
-        <v>1772.7669913862</v>
+        <v>2675.62365</v>
       </c>
       <c r="I15" t="n">
-        <v>9.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J15" t="n">
-        <v>790.2329605668</v>
+        <v>1350.843356</v>
       </c>
       <c r="K15" t="n">
         <v>12.9</v>
       </c>
       <c r="L15" t="n">
-        <v>8211</v>
+        <v>12247.06202</v>
       </c>
       <c r="M15" t="n">
-        <v>6.6</v>
+        <v>6.37254902</v>
       </c>
       <c r="N15" t="n">
-        <v>502.4062495679</v>
+        <v>760.4006072</v>
       </c>
       <c r="O15" t="n">
-        <v>7.4</v>
+        <v>8.5</v>
       </c>
       <c r="P15" t="n">
-        <v>651.8050124793</v>
+        <v>867.3551175</v>
       </c>
       <c r="Q15" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="R15" t="n">
-        <v>2536.7222874998</v>
+        <v>3663.599889</v>
       </c>
       <c r="S15" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="T15" t="n">
-        <v>530.2715494250739</v>
-      </c>
-      <c r="U15" t="n">
-        <v>96.679819388322</v>
-      </c>
-      <c r="V15" t="n">
-        <v>338.24702188218</v>
-      </c>
-      <c r="W15" t="n">
-        <v>874.421955977127</v>
-      </c>
-      <c r="X15" t="n">
-        <v>367.000270418262</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>3757.4527578252</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>235.507531470286</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>246.406973092533</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>1068.8376607871</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2016年C</t>
+          <t>2016年B</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1669.327836</v>
+        <v>1104.3038712935</v>
       </c>
       <c r="C16" t="n">
+        <v>9</v>
+      </c>
+      <c r="D16" t="n">
+        <v>211.0086238758</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="F16" t="n">
+        <v>641.6740279463</v>
+      </c>
+      <c r="G16" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1772.7669913862</v>
+      </c>
+      <c r="I16" t="n">
         <v>9.5</v>
       </c>
-      <c r="D16" t="n">
-        <v>300.0379869</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="F16" t="n">
-        <v>959.8735809</v>
-      </c>
-      <c r="G16" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2675.62365</v>
-      </c>
-      <c r="I16" t="n">
-        <v>8.800000000000001</v>
-      </c>
       <c r="J16" t="n">
-        <v>1350.843356</v>
+        <v>790.2329605668</v>
       </c>
       <c r="K16" t="n">
         <v>12.9</v>
       </c>
       <c r="L16" t="n">
-        <v>12247.06202</v>
+        <v>8211</v>
       </c>
       <c r="M16" t="n">
-        <v>6.37254902</v>
+        <v>6.6</v>
       </c>
       <c r="N16" t="n">
-        <v>760.4006072</v>
+        <v>502.4062495679</v>
       </c>
       <c r="O16" t="n">
-        <v>8.5</v>
+        <v>7.4</v>
       </c>
       <c r="P16" t="n">
-        <v>867.3551175</v>
+        <v>651.8050124793</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="R16" t="n">
-        <v>3663.599889</v>
+        <v>2536.7222874998</v>
       </c>
       <c r="S16" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="T16" t="n">
-        <v>565.0239647065</v>
-      </c>
-      <c r="U16" t="n">
-        <v>89.02936302420002</v>
-      </c>
-      <c r="V16" t="n">
-        <v>318.1995529536999</v>
-      </c>
-      <c r="W16" t="n">
-        <v>902.8566586137999</v>
-      </c>
-      <c r="X16" t="n">
-        <v>560.6103954332001</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>4036.062019999999</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>257.9943576321</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>215.5501050207</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>1126.8776015002</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="17">
@@ -1878,33 +1428,6 @@
       <c r="S17" t="n">
         <v>7</v>
       </c>
-      <c r="T17" t="n">
-        <v>668.6721640000001</v>
-      </c>
-      <c r="U17" t="n">
-        <v>105.9620131</v>
-      </c>
-      <c r="V17" t="n">
-        <v>347.1264191</v>
-      </c>
-      <c r="W17" t="n">
-        <v>1070.37635</v>
-      </c>
-      <c r="X17" t="n">
-        <v>564.1566439999999</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>4863.937980000001</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>283.5993928</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>335.6448825</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>1487.400111</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1966,208 +1489,127 @@
       <c r="S18" t="n">
         <v>4.6</v>
       </c>
-      <c r="T18" t="n">
-        <v>645</v>
-      </c>
-      <c r="U18" t="n">
-        <v>127</v>
-      </c>
-      <c r="V18" t="n">
-        <v>352</v>
-      </c>
-      <c r="W18" t="n">
-        <v>978</v>
-      </c>
-      <c r="X18" t="n">
-        <v>480</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>4796</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>277</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>403</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>1535</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2017年B</t>
+          <t>2017年C</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1210.647245</v>
+        <v>1795.048717</v>
       </c>
       <c r="C19" t="n">
-        <v>9.6</v>
+        <v>7.5</v>
       </c>
       <c r="D19" t="n">
-        <v>236.204788</v>
+        <v>336.792079</v>
       </c>
       <c r="E19" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="F19" t="n">
-        <v>718.025179</v>
+        <v>1086.349686</v>
       </c>
       <c r="G19" t="n">
-        <v>11.9</v>
+        <v>13.2</v>
       </c>
       <c r="H19" t="n">
-        <v>1919.230526</v>
+        <v>2915.104967</v>
       </c>
       <c r="I19" t="n">
-        <v>8.300000000000001</v>
+        <v>9</v>
       </c>
       <c r="J19" t="n">
-        <v>869.117046</v>
+        <v>1470.883438</v>
       </c>
       <c r="K19" t="n">
-        <v>10</v>
+        <v>8.9</v>
       </c>
       <c r="L19" t="n">
-        <v>8834.115309999999</v>
+        <v>13161.86821</v>
       </c>
       <c r="M19" t="n">
-        <v>6.114398422</v>
+        <v>5.911330049</v>
       </c>
       <c r="N19" t="n">
-        <v>535.190783</v>
+        <v>820.484727</v>
       </c>
       <c r="O19" t="n">
-        <v>6.5</v>
+        <v>7.9</v>
       </c>
       <c r="P19" t="n">
-        <v>667.634833</v>
+        <v>889.770482</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="R19" t="n">
-        <v>2678.064911</v>
+        <v>3847.434114</v>
       </c>
       <c r="S19" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="T19" t="n">
-        <v>565.6472450000001</v>
-      </c>
-      <c r="U19" t="n">
-        <v>109.204788</v>
-      </c>
-      <c r="V19" t="n">
-        <v>366.025179</v>
-      </c>
-      <c r="W19" t="n">
-        <v>941.2305260000001</v>
-      </c>
-      <c r="X19" t="n">
-        <v>389.117046</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>4038.115309999999</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>258.190783</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>264.634833</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>1143.064911</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2017年C</t>
+          <t>2017年B</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1795.048717</v>
+        <v>1210.647245</v>
       </c>
       <c r="C20" t="n">
-        <v>7.5</v>
+        <v>9.6</v>
       </c>
       <c r="D20" t="n">
-        <v>336.792079</v>
+        <v>236.204788</v>
       </c>
       <c r="E20" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="F20" t="n">
-        <v>1086.349686</v>
+        <v>718.025179</v>
       </c>
       <c r="G20" t="n">
-        <v>13.2</v>
+        <v>11.9</v>
       </c>
       <c r="H20" t="n">
-        <v>2915.104967</v>
+        <v>1919.230526</v>
       </c>
       <c r="I20" t="n">
-        <v>9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J20" t="n">
-        <v>1470.883438</v>
+        <v>869.117046</v>
       </c>
       <c r="K20" t="n">
-        <v>8.9</v>
+        <v>10</v>
       </c>
       <c r="L20" t="n">
-        <v>13161.86821</v>
+        <v>8834.115309999999</v>
       </c>
       <c r="M20" t="n">
-        <v>5.911330049</v>
+        <v>6.114398422</v>
       </c>
       <c r="N20" t="n">
-        <v>820.484727</v>
+        <v>535.190783</v>
       </c>
       <c r="O20" t="n">
-        <v>7.9</v>
+        <v>6.5</v>
       </c>
       <c r="P20" t="n">
-        <v>889.770482</v>
+        <v>667.634833</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="R20" t="n">
-        <v>3847.434114</v>
+        <v>2678.064911</v>
       </c>
       <c r="S20" t="n">
-        <v>5</v>
-      </c>
-      <c r="T20" t="n">
-        <v>584.4014719999998</v>
-      </c>
-      <c r="U20" t="n">
-        <v>100.587291</v>
-      </c>
-      <c r="V20" t="n">
-        <v>368.324507</v>
-      </c>
-      <c r="W20" t="n">
-        <v>995.8744410000002</v>
-      </c>
-      <c r="X20" t="n">
-        <v>601.7663920000001</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>4327.752900000001</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>285.293944</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>222.1356490000001</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>1169.369203</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="21">
@@ -2230,33 +1672,6 @@
       <c r="S21" t="n">
         <v>4.3</v>
       </c>
-      <c r="T21" t="n">
-        <v>703.8916449999999</v>
-      </c>
-      <c r="U21" t="n">
-        <v>110.2073552</v>
-      </c>
-      <c r="V21" t="n">
-        <v>364.8628639999999</v>
-      </c>
-      <c r="W21" t="n">
-        <v>1191.768897</v>
-      </c>
-      <c r="X21" t="n">
-        <v>615.356939</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>5160.279920000001</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>300.1658809999999</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>347.8776260000001</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>1526.14871</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -2318,208 +1733,127 @@
       <c r="S22" t="n">
         <v>5.2</v>
       </c>
-      <c r="T22" t="n">
-        <v>676</v>
-      </c>
-      <c r="U22" t="n">
-        <v>135</v>
-      </c>
-      <c r="V22" t="n">
-        <v>424</v>
-      </c>
-      <c r="W22" t="n">
-        <v>1107</v>
-      </c>
-      <c r="X22" t="n">
-        <v>454</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>5162</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>310</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>441</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>1615</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2018年B</t>
+          <t>2018年C</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1286</v>
+        <v>1931</v>
       </c>
       <c r="C23" t="n">
-        <v>6.2</v>
+        <v>7.6</v>
       </c>
       <c r="D23" t="n">
-        <v>253</v>
+        <v>361</v>
       </c>
       <c r="E23" t="n">
         <v>7.1</v>
       </c>
       <c r="F23" t="n">
-        <v>860</v>
+        <v>1275</v>
       </c>
       <c r="G23" t="n">
-        <v>19.7</v>
+        <v>17.4</v>
       </c>
       <c r="H23" t="n">
-        <v>2157</v>
+        <v>3269</v>
       </c>
       <c r="I23" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="J23" t="n">
-        <v>932</v>
+        <v>1556</v>
       </c>
       <c r="K23" t="n">
-        <v>7.2</v>
+        <v>5.8</v>
       </c>
       <c r="L23" t="n">
-        <v>9609</v>
+        <v>14281</v>
       </c>
       <c r="M23" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="N23" t="n">
-        <v>598</v>
+        <v>898</v>
       </c>
       <c r="O23" t="n">
-        <v>11.8</v>
+        <v>9.4</v>
       </c>
       <c r="P23" t="n">
-        <v>710</v>
+        <v>927</v>
       </c>
       <c r="Q23" t="n">
-        <v>6.3</v>
+        <v>4.2</v>
       </c>
       <c r="R23" t="n">
-        <v>2814</v>
+        <v>4063</v>
       </c>
       <c r="S23" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="T23" t="n">
-        <v>610</v>
-      </c>
-      <c r="U23" t="n">
-        <v>118</v>
-      </c>
-      <c r="V23" t="n">
-        <v>436</v>
-      </c>
-      <c r="W23" t="n">
-        <v>1050</v>
-      </c>
-      <c r="X23" t="n">
-        <v>478</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>4447</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>288</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>269</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>1199</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2018年C</t>
+          <t>2018年B</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1931</v>
+        <v>1286</v>
       </c>
       <c r="C24" t="n">
-        <v>7.6</v>
+        <v>6.2</v>
       </c>
       <c r="D24" t="n">
-        <v>361</v>
+        <v>253</v>
       </c>
       <c r="E24" t="n">
         <v>7.1</v>
       </c>
       <c r="F24" t="n">
-        <v>1275</v>
+        <v>860</v>
       </c>
       <c r="G24" t="n">
-        <v>17.4</v>
+        <v>19.7</v>
       </c>
       <c r="H24" t="n">
-        <v>3269</v>
+        <v>2157</v>
       </c>
       <c r="I24" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="J24" t="n">
-        <v>1556</v>
+        <v>932</v>
       </c>
       <c r="K24" t="n">
-        <v>5.8</v>
+        <v>7.2</v>
       </c>
       <c r="L24" t="n">
-        <v>14281</v>
+        <v>9609</v>
       </c>
       <c r="M24" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="N24" t="n">
+        <v>598</v>
+      </c>
+      <c r="O24" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="P24" t="n">
+        <v>710</v>
+      </c>
+      <c r="Q24" t="n">
         <v>6.3</v>
       </c>
-      <c r="N24" t="n">
-        <v>898</v>
-      </c>
-      <c r="O24" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="P24" t="n">
-        <v>927</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>4.2</v>
-      </c>
       <c r="R24" t="n">
-        <v>4063</v>
+        <v>2814</v>
       </c>
       <c r="S24" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="T24" t="n">
-        <v>645</v>
-      </c>
-      <c r="U24" t="n">
-        <v>108</v>
-      </c>
-      <c r="V24" t="n">
-        <v>415</v>
-      </c>
-      <c r="W24" t="n">
-        <v>1112</v>
-      </c>
-      <c r="X24" t="n">
-        <v>624</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>4672</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>300</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>217</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>1249</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="25">
@@ -2582,33 +1916,6 @@
       <c r="S25" t="n">
         <v>4.8</v>
       </c>
-      <c r="T25" t="n">
-        <v>744</v>
-      </c>
-      <c r="U25" t="n">
-        <v>116</v>
-      </c>
-      <c r="V25" t="n">
-        <v>410</v>
-      </c>
-      <c r="W25" t="n">
-        <v>1378</v>
-      </c>
-      <c r="X25" t="n">
-        <v>670</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>5572</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>325</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>362</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>1568</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -2670,208 +1977,127 @@
       <c r="S26" t="n">
         <v>3.6</v>
       </c>
-      <c r="T26" t="n">
-        <v>728.8762862677</v>
-      </c>
-      <c r="U26" t="n">
-        <v>144.000753029</v>
-      </c>
-      <c r="V26" t="n">
-        <v>463.9146972345</v>
-      </c>
-      <c r="W26" t="n">
-        <v>1211.6765490656</v>
-      </c>
-      <c r="X26" t="n">
-        <v>547.8452735663</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>5537.5008850455</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>319.4938162054</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>448.8784741869</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>1672.81503549</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2019年B</t>
+          <t>2019年C</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1386.555657144</v>
+        <v>2078.1893078662</v>
       </c>
       <c r="C27" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="D27" t="n">
-        <v>277.7116956063</v>
+        <v>400.8880571301</v>
       </c>
       <c r="E27" t="n">
-        <v>9.800000000000001</v>
+        <v>11.1</v>
       </c>
       <c r="F27" t="n">
-        <v>941.1501290952</v>
+        <v>1413.9959542499</v>
       </c>
       <c r="G27" t="n">
-        <v>9.5</v>
+        <v>10.9</v>
       </c>
       <c r="H27" t="n">
-        <v>2389.3312990305</v>
+        <v>3606.5433308505</v>
       </c>
       <c r="I27" t="n">
-        <v>10.8</v>
+        <v>10.3</v>
       </c>
       <c r="J27" t="n">
-        <v>1032.9988881623</v>
+        <v>1766.0342575086</v>
       </c>
       <c r="K27" t="n">
-        <v>10.9</v>
+        <v>13.5</v>
       </c>
       <c r="L27" t="n">
-        <v>10330.4472091597</v>
+        <v>15464.2689684162</v>
       </c>
       <c r="M27" t="n">
-        <v>5.1859099804</v>
+        <v>5.6585365854</v>
       </c>
       <c r="N27" t="n">
-        <v>621.2193000072</v>
+        <v>926.4036670832</v>
       </c>
       <c r="O27" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="P27" t="n">
+        <v>962.2271009625</v>
+      </c>
+      <c r="Q27" t="n">
         <v>3.8</v>
       </c>
-      <c r="P27" t="n">
-        <v>731.2936174604</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>3</v>
-      </c>
       <c r="R27" t="n">
-        <v>2950.1866226538</v>
+        <v>4309.9872927653</v>
       </c>
       <c r="S27" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="T27" t="n">
-        <v>657.6793708762999</v>
-      </c>
-      <c r="U27" t="n">
-        <v>133.7109425773</v>
-      </c>
-      <c r="V27" t="n">
-        <v>477.2354318607</v>
-      </c>
-      <c r="W27" t="n">
-        <v>1177.6547499649</v>
-      </c>
-      <c r="X27" t="n">
-        <v>485.1536145960001</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>4792.9463241142</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>301.7254838018</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>282.4151432735</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>1277.3715871638</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2019年C</t>
+          <t>2019年B</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2078.1893078662</v>
+        <v>1386.555657144</v>
       </c>
       <c r="C28" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="D28" t="n">
-        <v>400.8880571301</v>
+        <v>277.7116956063</v>
       </c>
       <c r="E28" t="n">
-        <v>11.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F28" t="n">
-        <v>1413.9959542499</v>
+        <v>941.1501290952</v>
       </c>
       <c r="G28" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2389.3312990305</v>
+      </c>
+      <c r="I28" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1032.9988881623</v>
+      </c>
+      <c r="K28" t="n">
         <v>10.9</v>
       </c>
-      <c r="H28" t="n">
-        <v>3606.5433308505</v>
-      </c>
-      <c r="I28" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1766.0342575086</v>
-      </c>
-      <c r="K28" t="n">
-        <v>13.5</v>
-      </c>
       <c r="L28" t="n">
-        <v>15464.2689684162</v>
+        <v>10330.4472091597</v>
       </c>
       <c r="M28" t="n">
-        <v>5.6585365854</v>
+        <v>5.1859099804</v>
       </c>
       <c r="N28" t="n">
-        <v>926.4036670832</v>
+        <v>621.2193000072</v>
       </c>
       <c r="O28" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P28" t="n">
-        <v>962.2271009625</v>
+        <v>731.2936174604</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="R28" t="n">
-        <v>4309.9872927653</v>
+        <v>2950.1866226538</v>
       </c>
       <c r="S28" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="T28" t="n">
-        <v>691.6336507222002</v>
-      </c>
-      <c r="U28" t="n">
-        <v>123.1763615238</v>
-      </c>
-      <c r="V28" t="n">
-        <v>472.8458251547</v>
-      </c>
-      <c r="W28" t="n">
-        <v>1217.21203182</v>
-      </c>
-      <c r="X28" t="n">
-        <v>733.0353693462998</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>5133.8217592565</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>305.1843670760001</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>230.9334835021</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>1359.8006701115</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="29">
@@ -2934,33 +2160,6 @@
       <c r="S29" t="n">
         <v>8</v>
       </c>
-      <c r="T29" t="n">
-        <v>783.8106921337999</v>
-      </c>
-      <c r="U29" t="n">
-        <v>123.1119428699</v>
-      </c>
-      <c r="V29" t="n">
-        <v>488.0040457501</v>
-      </c>
-      <c r="W29" t="n">
-        <v>1448.4566691495</v>
-      </c>
-      <c r="X29" t="n">
-        <v>746.9657424914001</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>6094.7310315838</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>354.5963329168</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>375.7728990375</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>1774.0127072347</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -3022,208 +2221,127 @@
       <c r="S30" t="n">
         <v>2.1</v>
       </c>
-      <c r="T30" t="n">
-        <v>605</v>
-      </c>
-      <c r="U30" t="n">
-        <v>112</v>
-      </c>
-      <c r="V30" t="n">
-        <v>417</v>
-      </c>
-      <c r="W30" t="n">
-        <v>1238</v>
-      </c>
-      <c r="X30" t="n">
-        <v>350</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>5082</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>283</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>369</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>1708</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2020年B</t>
+          <t>2020年C</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1238</v>
+        <v>1955</v>
       </c>
       <c r="C31" t="n">
-        <v>-10.7</v>
+        <v>-5.9</v>
       </c>
       <c r="D31" t="n">
-        <v>215</v>
+        <v>328</v>
       </c>
       <c r="E31" t="n">
-        <v>-22.6</v>
+        <v>-18.1</v>
       </c>
       <c r="F31" t="n">
-        <v>848</v>
+        <v>1338</v>
       </c>
       <c r="G31" t="n">
-        <v>-9.9</v>
+        <v>-5.4</v>
       </c>
       <c r="H31" t="n">
-        <v>2464</v>
+        <v>3736</v>
       </c>
       <c r="I31" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="J31" t="n">
-        <v>664</v>
+        <v>1276</v>
       </c>
       <c r="K31" t="n">
-        <v>-35.7</v>
+        <v>-27.7</v>
       </c>
       <c r="L31" t="n">
-        <v>9718</v>
+        <v>14923</v>
       </c>
       <c r="M31" t="n">
-        <v>-9.300000000000001</v>
+        <v>-6.6</v>
       </c>
       <c r="N31" t="n">
-        <v>582</v>
+        <v>896</v>
       </c>
       <c r="O31" t="n">
-        <v>-6.4</v>
+        <v>-3.3</v>
       </c>
       <c r="P31" t="n">
-        <v>611</v>
+        <v>847</v>
       </c>
       <c r="Q31" t="n">
-        <v>-16.4</v>
+        <v>-11.9</v>
       </c>
       <c r="R31" t="n">
-        <v>3097</v>
+        <v>4546</v>
       </c>
       <c r="S31" t="n">
-        <v>5</v>
-      </c>
-      <c r="T31" t="n">
-        <v>633</v>
-      </c>
-      <c r="U31" t="n">
-        <v>103</v>
-      </c>
-      <c r="V31" t="n">
-        <v>431</v>
-      </c>
-      <c r="W31" t="n">
-        <v>1226</v>
-      </c>
-      <c r="X31" t="n">
-        <v>314</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>4636</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>299</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>242</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>1389</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2020年C</t>
+          <t>2020年B</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1955</v>
+        <v>1238</v>
       </c>
       <c r="C32" t="n">
-        <v>-5.9</v>
+        <v>-10.7</v>
       </c>
       <c r="D32" t="n">
-        <v>328</v>
+        <v>215</v>
       </c>
       <c r="E32" t="n">
-        <v>-18.1</v>
+        <v>-22.6</v>
       </c>
       <c r="F32" t="n">
-        <v>1338</v>
+        <v>848</v>
       </c>
       <c r="G32" t="n">
-        <v>-5.4</v>
+        <v>-9.9</v>
       </c>
       <c r="H32" t="n">
-        <v>3736</v>
+        <v>2464</v>
       </c>
       <c r="I32" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="J32" t="n">
-        <v>1276</v>
+        <v>664</v>
       </c>
       <c r="K32" t="n">
-        <v>-27.7</v>
+        <v>-35.7</v>
       </c>
       <c r="L32" t="n">
-        <v>14923</v>
+        <v>9718</v>
       </c>
       <c r="M32" t="n">
-        <v>-6.6</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="N32" t="n">
-        <v>896</v>
+        <v>582</v>
       </c>
       <c r="O32" t="n">
-        <v>-3.3</v>
+        <v>-6.4</v>
       </c>
       <c r="P32" t="n">
-        <v>847</v>
+        <v>611</v>
       </c>
       <c r="Q32" t="n">
-        <v>-11.9</v>
+        <v>-16.4</v>
       </c>
       <c r="R32" t="n">
-        <v>4546</v>
+        <v>3097</v>
       </c>
       <c r="S32" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="T32" t="n">
-        <v>717</v>
-      </c>
-      <c r="U32" t="n">
-        <v>113</v>
-      </c>
-      <c r="V32" t="n">
-        <v>490</v>
-      </c>
-      <c r="W32" t="n">
-        <v>1272</v>
-      </c>
-      <c r="X32" t="n">
-        <v>612</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>5205</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>314</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>236</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>1449</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33">
@@ -3286,33 +2404,6 @@
       <c r="S33" t="n">
         <v>5.1</v>
       </c>
-      <c r="T33" t="n">
-        <v>807</v>
-      </c>
-      <c r="U33" t="n">
-        <v>134</v>
-      </c>
-      <c r="V33" t="n">
-        <v>505</v>
-      </c>
-      <c r="W33" t="n">
-        <v>1479</v>
-      </c>
-      <c r="X33" t="n">
-        <v>756</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>6287</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>364</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>391</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>1851</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -3374,208 +2465,127 @@
       <c r="S34" t="n">
         <v>16.3</v>
       </c>
-      <c r="T34" t="n">
-        <v>702</v>
-      </c>
-      <c r="U34" t="n">
-        <v>139</v>
-      </c>
-      <c r="V34" t="n">
-        <v>484</v>
-      </c>
-      <c r="W34" t="n">
-        <v>1345</v>
-      </c>
-      <c r="X34" t="n">
-        <v>545</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>5978</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>339</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>437</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>1986</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2021年B</t>
+          <t>2021年C</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1455</v>
+        <v>2237</v>
       </c>
       <c r="C35" t="n">
-        <v>17.5</v>
+        <v>14.4</v>
       </c>
       <c r="D35" t="n">
-        <v>286</v>
+        <v>415</v>
       </c>
       <c r="E35" t="n">
-        <v>33</v>
+        <v>26.3</v>
       </c>
       <c r="F35" t="n">
-        <v>1015</v>
+        <v>1557</v>
       </c>
       <c r="G35" t="n">
-        <v>19.7</v>
+        <v>16.4</v>
       </c>
       <c r="H35" t="n">
-        <v>2649</v>
+        <v>4031</v>
       </c>
       <c r="I35" t="n">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
       <c r="J35" t="n">
-        <v>1119</v>
+        <v>1867</v>
       </c>
       <c r="K35" t="n">
-        <v>68.5</v>
+        <v>46.3</v>
       </c>
       <c r="L35" t="n">
-        <v>11471</v>
+        <v>17275</v>
       </c>
       <c r="M35" t="n">
-        <v>17.4</v>
+        <v>15.1</v>
       </c>
       <c r="N35" t="n">
-        <v>669</v>
+        <v>1021</v>
       </c>
       <c r="O35" t="n">
-        <v>15.1</v>
+        <v>14</v>
       </c>
       <c r="P35" t="n">
-        <v>742</v>
+        <v>1002</v>
       </c>
       <c r="Q35" t="n">
-        <v>21.4</v>
+        <v>18.2</v>
       </c>
       <c r="R35" t="n">
-        <v>3536</v>
+        <v>5144</v>
       </c>
       <c r="S35" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="T35" t="n">
-        <v>753</v>
-      </c>
-      <c r="U35" t="n">
-        <v>147</v>
-      </c>
-      <c r="V35" t="n">
-        <v>531</v>
-      </c>
-      <c r="W35" t="n">
-        <v>1304</v>
-      </c>
-      <c r="X35" t="n">
-        <v>574</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>5493</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>330</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>305</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>1550</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2021年C</t>
+          <t>2021年B</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2237</v>
+        <v>1455</v>
       </c>
       <c r="C36" t="n">
-        <v>14.4</v>
+        <v>17.5</v>
       </c>
       <c r="D36" t="n">
-        <v>415</v>
+        <v>286</v>
       </c>
       <c r="E36" t="n">
-        <v>26.3</v>
+        <v>33</v>
       </c>
       <c r="F36" t="n">
-        <v>1557</v>
+        <v>1015</v>
       </c>
       <c r="G36" t="n">
-        <v>16.4</v>
+        <v>19.7</v>
       </c>
       <c r="H36" t="n">
-        <v>4031</v>
+        <v>2649</v>
       </c>
       <c r="I36" t="n">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="J36" t="n">
-        <v>1867</v>
+        <v>1119</v>
       </c>
       <c r="K36" t="n">
-        <v>46.3</v>
+        <v>68.5</v>
       </c>
       <c r="L36" t="n">
-        <v>17275</v>
+        <v>11471</v>
       </c>
       <c r="M36" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="N36" t="n">
+        <v>669</v>
+      </c>
+      <c r="O36" t="n">
         <v>15.1</v>
       </c>
-      <c r="N36" t="n">
-        <v>1021</v>
-      </c>
-      <c r="O36" t="n">
-        <v>14</v>
-      </c>
       <c r="P36" t="n">
-        <v>1002</v>
+        <v>742</v>
       </c>
       <c r="Q36" t="n">
-        <v>18.2</v>
+        <v>21.4</v>
       </c>
       <c r="R36" t="n">
-        <v>5144</v>
+        <v>3536</v>
       </c>
       <c r="S36" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="T36" t="n">
-        <v>782</v>
-      </c>
-      <c r="U36" t="n">
-        <v>129</v>
-      </c>
-      <c r="V36" t="n">
-        <v>542</v>
-      </c>
-      <c r="W36" t="n">
-        <v>1382</v>
-      </c>
-      <c r="X36" t="n">
-        <v>748</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>5804</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>352</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>260</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>1608</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="37">
@@ -3587,23 +2597,33 @@
       <c r="B37" t="n">
         <v>3155.58</v>
       </c>
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" t="n">
+        <v>14.256675537</v>
+      </c>
       <c r="D37" t="n">
         <v>569.4400000000001</v>
       </c>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>23.1943893876</v>
+      </c>
       <c r="F37" t="n">
         <v>2115.15</v>
       </c>
-      <c r="G37" t="inlineStr"/>
+      <c r="G37" t="n">
+        <v>14.7620261318</v>
+      </c>
       <c r="H37" t="n">
         <v>5641.05</v>
       </c>
-      <c r="I37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>8.1626125639</v>
+      </c>
       <c r="J37" t="n">
         <v>2598.94</v>
       </c>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>27.8865837233</v>
+      </c>
       <c r="L37" t="n">
         <v>24100.09</v>
       </c>
@@ -3613,41 +2633,20 @@
       <c r="N37" t="n">
         <v>1423.18</v>
       </c>
-      <c r="O37" t="inlineStr"/>
+      <c r="O37" t="n">
+        <v>12.9947349888</v>
+      </c>
       <c r="P37" t="n">
         <v>1418.67</v>
       </c>
-      <c r="Q37" t="inlineStr"/>
+      <c r="Q37" t="n">
+        <v>14.5585652085</v>
+      </c>
       <c r="R37" t="n">
         <v>7178.08</v>
       </c>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="n">
-        <v>918.5799999999999</v>
-      </c>
-      <c r="U37" t="n">
-        <v>154.4400000000001</v>
-      </c>
-      <c r="V37" t="n">
-        <v>558.1500000000001</v>
-      </c>
-      <c r="W37" t="n">
-        <v>1610.05</v>
-      </c>
-      <c r="X37" t="n">
-        <v>731.9400000000001</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>6825.09</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>402.1800000000001</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>416.6700000000001</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>2034.08</v>
+      <c r="S37" t="n">
+        <v>12.2051129851</v>
       </c>
     </row>
   </sheetData>
